--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs1-Sdc4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H2">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I2">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J2">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N2">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O2">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P2">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q2">
-        <v>64.73741160634378</v>
+        <v>30.56874926904167</v>
       </c>
       <c r="R2">
-        <v>582.636704457094</v>
+        <v>275.118743421375</v>
       </c>
       <c r="S2">
-        <v>0.00401189250251008</v>
+        <v>0.001795007848108377</v>
       </c>
       <c r="T2">
-        <v>0.004011892502510079</v>
+        <v>0.001795007848108377</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H3">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I3">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J3">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>31.151571</v>
       </c>
       <c r="O3">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P3">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q3">
-        <v>195.4760318767153</v>
+        <v>219.9923909407144</v>
       </c>
       <c r="R3">
-        <v>1759.284286890438</v>
+        <v>1979.931518466429</v>
       </c>
       <c r="S3">
-        <v>0.012113997258268</v>
+        <v>0.01291803157490088</v>
       </c>
       <c r="T3">
-        <v>0.012113997258268</v>
+        <v>0.01291803157490088</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H4">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I4">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J4">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N4">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O4">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P4">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q4">
-        <v>374.0378894173989</v>
+        <v>591.824947422427</v>
       </c>
       <c r="R4">
-        <v>3366.34100475659</v>
+        <v>5326.424526801843</v>
       </c>
       <c r="S4">
-        <v>0.02317979305896916</v>
+        <v>0.03475217176796479</v>
       </c>
       <c r="T4">
-        <v>0.02317979305896915</v>
+        <v>0.03475217176796479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.82499266666667</v>
+        <v>21.18599966666667</v>
       </c>
       <c r="H5">
-        <v>56.474978</v>
+        <v>63.557999</v>
       </c>
       <c r="I5">
-        <v>0.06886869772378311</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="J5">
-        <v>0.0688686977237831</v>
+        <v>0.08765141600314529</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N5">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O5">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P5">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q5">
-        <v>477.0399662926255</v>
+        <v>650.3060817643047</v>
       </c>
       <c r="R5">
-        <v>4293.35969663363</v>
+        <v>5852.754735878742</v>
       </c>
       <c r="S5">
-        <v>0.02956301490403587</v>
+        <v>0.03818620481217123</v>
       </c>
       <c r="T5">
-        <v>0.02956301490403586</v>
+        <v>0.03818620481217123</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>365.462677</v>
       </c>
       <c r="I6">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J6">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N6">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O6">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P6">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q6">
-        <v>418.9308006052746</v>
+        <v>175.7723200254584</v>
       </c>
       <c r="R6">
-        <v>3770.377205447471</v>
+        <v>1581.950880229125</v>
       </c>
       <c r="S6">
-        <v>0.02596188658636686</v>
+        <v>0.01032141325603559</v>
       </c>
       <c r="T6">
-        <v>0.02596188658636685</v>
+        <v>0.01032141325603559</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>365.462677</v>
       </c>
       <c r="I7">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J7">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>31.151571</v>
       </c>
       <c r="O7">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P7">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q7">
         <v>1264.97072560173</v>
@@ -883,10 +883,10 @@
         <v>11384.73653041557</v>
       </c>
       <c r="S7">
-        <v>0.07839248502544409</v>
+        <v>0.07427953169094897</v>
       </c>
       <c r="T7">
-        <v>0.07839248502544408</v>
+        <v>0.07427953169094896</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>365.462677</v>
       </c>
       <c r="I8">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J8">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N8">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O8">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P8">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q8">
-        <v>2420.485907332493</v>
+        <v>3403.032395660921</v>
       </c>
       <c r="R8">
-        <v>21784.37316599244</v>
+        <v>30627.2915609483</v>
       </c>
       <c r="S8">
-        <v>0.1500018153816171</v>
+        <v>0.199827274705175</v>
       </c>
       <c r="T8">
-        <v>0.1500018153816171</v>
+        <v>0.199827274705175</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>365.462677</v>
       </c>
       <c r="I9">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="J9">
-        <v>0.4456653109566078</v>
+        <v>0.5040014103551328</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N9">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O9">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P9">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q9">
-        <v>3087.036228987866</v>
+        <v>3739.302766768408</v>
       </c>
       <c r="R9">
-        <v>27783.3260608908</v>
+        <v>33653.72490091567</v>
       </c>
       <c r="S9">
-        <v>0.1913091239631797</v>
+        <v>0.2195731907029733</v>
       </c>
       <c r="T9">
-        <v>0.1913091239631797</v>
+        <v>0.2195731907029732</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H10">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I10">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J10">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N10">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O10">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P10">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q10">
-        <v>154.8425595211674</v>
+        <v>53.68531320920832</v>
       </c>
       <c r="R10">
-        <v>1393.583035690507</v>
+        <v>483.1678188828749</v>
       </c>
       <c r="S10">
-        <v>0.009595868728733177</v>
+        <v>0.003152420718641536</v>
       </c>
       <c r="T10">
-        <v>0.009595868728733173</v>
+        <v>0.003152420718641536</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H11">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I11">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J11">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>31.151571</v>
       </c>
       <c r="O11">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P11">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q11">
-        <v>467.5504990049042</v>
+        <v>386.3540607222596</v>
       </c>
       <c r="R11">
-        <v>4207.954491044138</v>
+        <v>3477.186546500337</v>
       </c>
       <c r="S11">
-        <v>0.0289749357436282</v>
+        <v>0.02268684809578858</v>
       </c>
       <c r="T11">
-        <v>0.0289749357436282</v>
+        <v>0.02268684809578858</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H12">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I12">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J12">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N12">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O12">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P12">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q12">
-        <v>894.6447304298771</v>
+        <v>1039.372183263431</v>
       </c>
       <c r="R12">
-        <v>8051.802573868895</v>
+        <v>9354.349649370879</v>
       </c>
       <c r="S12">
-        <v>0.05544272465274251</v>
+        <v>0.06103230490862298</v>
       </c>
       <c r="T12">
-        <v>0.0554427246527425</v>
+        <v>0.06103230490862298</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>45.02666966666666</v>
+        <v>37.20718233333333</v>
       </c>
       <c r="H13">
-        <v>135.080009</v>
+        <v>111.621547</v>
       </c>
       <c r="I13">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="J13">
-        <v>0.1647240005714903</v>
+        <v>0.1539347809079331</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N13">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O13">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P13">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q13">
-        <v>1141.010855111224</v>
+        <v>1142.077661539347</v>
       </c>
       <c r="R13">
-        <v>10269.09769600101</v>
+        <v>10278.69895385413</v>
       </c>
       <c r="S13">
-        <v>0.07071047144638638</v>
+        <v>0.06706320718488001</v>
       </c>
       <c r="T13">
-        <v>0.07071047144638637</v>
+        <v>0.06706320718488003</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H14">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I14">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J14">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.438907666666667</v>
+        <v>1.442875</v>
       </c>
       <c r="N14">
-        <v>10.316723</v>
+        <v>4.328625</v>
       </c>
       <c r="O14">
-        <v>0.05825422340060619</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="P14">
-        <v>0.05825422340060618</v>
+        <v>0.02047893724893121</v>
       </c>
       <c r="Q14">
-        <v>301.5013636206517</v>
+        <v>88.72724479587498</v>
       </c>
       <c r="R14">
-        <v>2713.512272585865</v>
+        <v>798.5452031628748</v>
       </c>
       <c r="S14">
-        <v>0.01868457558299608</v>
+        <v>0.005210095426145702</v>
       </c>
       <c r="T14">
-        <v>0.01868457558299607</v>
+        <v>0.005210095426145702</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H15">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I15">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J15">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>31.151571</v>
       </c>
       <c r="O15">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="P15">
-        <v>0.1758999031294961</v>
+        <v>0.1473796107804731</v>
       </c>
       <c r="Q15">
-        <v>910.3899693173449</v>
+        <v>638.5383501442329</v>
       </c>
       <c r="R15">
-        <v>8193.509723856105</v>
+        <v>5746.845151298096</v>
       </c>
       <c r="S15">
-        <v>0.05641848510215586</v>
+        <v>0.03749519941883465</v>
       </c>
       <c r="T15">
-        <v>0.05641848510215584</v>
+        <v>0.03749519941883464</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H16">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I16">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J16">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.86921833333333</v>
+        <v>27.934719</v>
       </c>
       <c r="N16">
-        <v>59.607655</v>
+        <v>83.804157</v>
       </c>
       <c r="O16">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233052</v>
       </c>
       <c r="P16">
-        <v>0.336579517619719</v>
+        <v>0.3964815784233051</v>
       </c>
       <c r="Q16">
-        <v>1742.005602431058</v>
+        <v>1717.799983378311</v>
       </c>
       <c r="R16">
-        <v>15678.05042187952</v>
+        <v>15460.1998504048</v>
       </c>
       <c r="S16">
-        <v>0.1079551845263902</v>
+        <v>0.1008698270415424</v>
       </c>
       <c r="T16">
-        <v>0.1079551845263902</v>
+        <v>0.1008698270415424</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>87.673585</v>
+        <v>61.49336899999999</v>
       </c>
       <c r="H17">
-        <v>263.020755</v>
+        <v>184.480107</v>
       </c>
       <c r="I17">
-        <v>0.3207419907481189</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="J17">
-        <v>0.3207419907481188</v>
+        <v>0.2544123927337887</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.34077833333333</v>
+        <v>30.695086</v>
       </c>
       <c r="N17">
-        <v>76.022335</v>
+        <v>92.085258</v>
       </c>
       <c r="O17">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472906</v>
       </c>
       <c r="P17">
-        <v>0.4292663558501786</v>
+        <v>0.4356598735472905</v>
       </c>
       <c r="Q17">
-        <v>2221.716883173659</v>
+        <v>1887.544249884734</v>
       </c>
       <c r="R17">
-        <v>19995.45194856292</v>
+        <v>16987.8982489626</v>
       </c>
       <c r="S17">
-        <v>0.1376837455365767</v>
+        <v>0.110837270847266</v>
       </c>
       <c r="T17">
-        <v>0.1376837455365767</v>
+        <v>0.110837270847266</v>
       </c>
     </row>
   </sheetData>
